--- a/docs/datasets-especificaciones/denuncias-clases.xlsx
+++ b/docs/datasets-especificaciones/denuncias-clases.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,34 +381,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Persona</t>
+          <t>Organización</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atributos de la persona física que realiza la denuncia.</t>
+          <t>Atributos de una organización a la cual o donde se realiza la denuncia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Organización</t>
+          <t>Denuncia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Atributos de una organización a la cual o donde se realiza la denuncia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Denuncia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>Atributos de la denuncia realizada por la persona en la organización.</t>
         </is>
